--- a/combinaisons-de-repere.xlsx
+++ b/combinaisons-de-repere.xlsx
@@ -23,49 +23,49 @@
     <t>Total - 3000</t>
   </si>
   <si>
-    <t>A7 - A10</t>
-  </si>
-  <si>
-    <t>A13 - A16 - A19</t>
-  </si>
-  <si>
-    <t>A22 - A25 - A9</t>
-  </si>
-  <si>
-    <t>A28 - A31 - A34</t>
-  </si>
-  <si>
-    <t>A12 - A37 - A40</t>
-  </si>
-  <si>
-    <t>A43 - A46 - A49</t>
-  </si>
-  <si>
-    <t>A21 - A15 - A18</t>
-  </si>
-  <si>
-    <t>A24 - A27 - A30</t>
-  </si>
-  <si>
-    <t>A45 - A48 - A33</t>
-  </si>
-  <si>
-    <t>A36 - A39 - A42</t>
-  </si>
-  <si>
-    <t>A8 - A11 - A14</t>
-  </si>
-  <si>
-    <t>A23 - A17 - A20</t>
-  </si>
-  <si>
-    <t>A26 - A29 - A32</t>
-  </si>
-  <si>
-    <t>A35 - A38 - A41</t>
-  </si>
-  <si>
-    <t>A44 - A47 - A50</t>
+    <t>A7 - A31 - A38</t>
+  </si>
+  <si>
+    <t>A21 - A18 - A42</t>
+  </si>
+  <si>
+    <t>A43 - A34 - A17</t>
+  </si>
+  <si>
+    <t>A8 - A15 - A40</t>
+  </si>
+  <si>
+    <t>A25 - A26 - A37</t>
+  </si>
+  <si>
+    <t>A30 - A13 - A36</t>
+  </si>
+  <si>
+    <t>A45 - A47</t>
+  </si>
+  <si>
+    <t>A22 - A44 - A10</t>
+  </si>
+  <si>
+    <t>A24 - A49 - A39</t>
+  </si>
+  <si>
+    <t>A46 - A12 - A14</t>
+  </si>
+  <si>
+    <t>A28 - A35 - A19</t>
+  </si>
+  <si>
+    <t>A9 - A16 - A41</t>
+  </si>
+  <si>
+    <t>A48 - A27 - A33</t>
+  </si>
+  <si>
+    <t>A23 - A11 - A20</t>
+  </si>
+  <si>
+    <t>A29 - A50 - A32</t>
   </si>
 </sst>
 </file>
@@ -147,10 +147,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1165.0</v>
+        <v>2981.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-1835.0</v>
+        <v>-19.0</v>
       </c>
     </row>
     <row r="3">
@@ -158,10 +158,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1847.0</v>
+        <v>2994.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-1153.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="4">
@@ -169,10 +169,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1937.0</v>
+        <v>2997.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1063.0</v>
+        <v>-3.0</v>
       </c>
     </row>
     <row r="5">
@@ -180,10 +180,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>2049.0</v>
+        <v>2997.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-951.0</v>
+        <v>-3.0</v>
       </c>
     </row>
     <row r="6">
@@ -191,10 +191,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>2141.0</v>
+        <v>2998.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-859.0</v>
+        <v>-2.0</v>
       </c>
     </row>
     <row r="7">
@@ -202,10 +202,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>2250.0</v>
+        <v>2998.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-750.0</v>
+        <v>-2.0</v>
       </c>
     </row>
     <row r="8">
@@ -213,10 +213,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>2544.0</v>
+        <v>2999.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-456.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="9">
@@ -224,10 +224,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>3174.0</v>
+        <v>2999.0</v>
       </c>
       <c r="C9" t="n">
-        <v>174.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="10">
@@ -235,10 +235,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>3596.0</v>
+        <v>2999.0</v>
       </c>
       <c r="C10" t="n">
-        <v>596.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="11">
@@ -246,10 +246,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>3744.0</v>
+        <v>2999.0</v>
       </c>
       <c r="C11" t="n">
-        <v>744.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="12">
@@ -257,10 +257,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>4556.0</v>
+        <v>2999.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1556.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="13">
@@ -268,10 +268,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>4760.0</v>
+        <v>2999.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1760.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="14">
@@ -279,10 +279,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>4963.0</v>
+        <v>3445.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1963.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="15">
@@ -290,10 +290,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>5167.0</v>
+        <v>4715.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2167.0</v>
+        <v>1715.0</v>
       </c>
     </row>
     <row r="16">
@@ -301,10 +301,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>5308.0</v>
+        <v>5082.0</v>
       </c>
       <c r="C16" t="n">
-        <v>2308.0</v>
+        <v>2082.0</v>
       </c>
     </row>
   </sheetData>
